--- a/Modules/iVCA/iVCA_BOM.xlsx
+++ b/Modules/iVCA/iVCA_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\iVCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16C33C-F166-45F9-8C9F-852665027B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2E277B-6695-44BC-AAFD-A2D94A34A267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
   <si>
     <t>Qty</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/mp0.6w-20k/tht-resistors/royal-ohm/mf006bb2002a10/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1400,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,6 +1892,9 @@
       </c>
       <c r="E24" t="s">
         <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,6 +2090,7 @@
     <hyperlink ref="F15" r:id="rId28" xr:uid="{A73CC50D-6402-4B9F-BA89-B7BEF6A9A237}"/>
     <hyperlink ref="F4" r:id="rId29" xr:uid="{1A1C1243-6CD0-4D71-BF93-FB319C2C1DCC}"/>
     <hyperlink ref="F6" r:id="rId30" xr:uid="{5387E2DD-7E16-4507-B60B-B69362367297}"/>
+    <hyperlink ref="F24" r:id="rId31" xr:uid="{E60A799E-C70E-4656-8426-1D272A3F13D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/iVCA/iVCA_BOM.xlsx
+++ b/Modules/iVCA/iVCA_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\iVCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2E277B-6695-44BC-AAFD-A2D94A34A267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E786A-7076-48EA-A176-80853E3ACC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>https://www.aliexpress.com/item/1005003256254825.html</t>
   </si>
   <si>
-    <t>Resistor Network THT, 4 Isolated Resistors</t>
-  </si>
-  <si>
     <t>B20k</t>
   </si>
   <si>
@@ -505,6 +502,21 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resistor Network THT, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Isolated Resistors</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1400,7 +1412,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1479,19 +1491,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1505,7 +1517,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1519,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1531,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1539,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1565,7 +1577,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1585,7 +1597,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1605,10 +1617,10 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>53</v>
@@ -1622,19 +1634,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1702,19 +1714,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1728,7 +1740,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
@@ -1748,7 +1760,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1762,19 +1774,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,19 +1794,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1802,19 +1814,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,7 +1840,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -1845,16 +1857,16 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,16 +1877,16 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1894,7 +1906,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,16 +1914,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,16 +1931,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1936,16 +1948,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,13 +2005,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,16 +2019,16 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>93</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2044,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,22 +2052,22 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Modules/iVCA/iVCA_BOM.xlsx
+++ b/Modules/iVCA/iVCA_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\iVCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E786A-7076-48EA-A176-80853E3ACC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCFBBE8-B658-49A1-8A15-467AA37487A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t>Qty</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>Potentiometer Nut</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/alpha-nuts-washers/</t>
   </si>
   <si>
     <t>Black D-Shaft Line</t>
@@ -517,6 +514,15 @@
       </rPr>
       <t>4 Isolated Resistors</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/alpha-d-shaft-dual-gang/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1418,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1491,19 +1497,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1517,7 +1523,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1531,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1543,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1551,13 +1557,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1577,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1597,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1617,10 +1623,10 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>53</v>
@@ -1640,7 +1646,7 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
@@ -1714,19 +1720,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1826,7 +1832,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -1866,7 +1872,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -1906,7 +1912,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,13 +2011,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>89</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2025,16 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
         <v>91</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,7 +2050,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,22 +2058,22 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2089,20 +2095,20 @@
     <hyperlink ref="F11" r:id="rId15" xr:uid="{9A2C0F42-F9A7-41AA-94D5-CCEE60DCDB6C}"/>
     <hyperlink ref="F18" r:id="rId16" xr:uid="{0D90FBA3-232B-45F3-9B80-144E63D03E3D}"/>
     <hyperlink ref="F19" r:id="rId17" xr:uid="{8DF1F044-558D-44D8-8070-099BFF365FAB}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{595225B3-F312-485C-AF0D-6F2313399401}"/>
-    <hyperlink ref="F23" r:id="rId19" xr:uid="{8B9632A9-814A-4DC4-9631-57B7806D3330}"/>
-    <hyperlink ref="F26" r:id="rId20" xr:uid="{D392D526-59B2-4A93-A093-DCD2091DFEBD}"/>
-    <hyperlink ref="F27" r:id="rId21" xr:uid="{008E511C-47F5-4260-BD59-24F612C3A54C}"/>
-    <hyperlink ref="F28" r:id="rId22" xr:uid="{B7BABB34-FFAC-4368-AC9C-3711E18528C8}"/>
-    <hyperlink ref="F33" r:id="rId23" xr:uid="{D0673C57-FA09-40F3-A004-4F5B32DB700F}"/>
-    <hyperlink ref="F32" r:id="rId24" xr:uid="{F4D8A8B0-9851-494E-9212-DAEE965A6752}"/>
-    <hyperlink ref="F7" r:id="rId25" xr:uid="{0A8324C1-BE5A-439C-A2BE-1A9CE9E466C8}"/>
-    <hyperlink ref="F22" r:id="rId26" xr:uid="{7E74E579-8BBC-460D-8171-1DD7E7105ABE}"/>
-    <hyperlink ref="F5" r:id="rId27" xr:uid="{E60E51FB-EE57-496C-BB85-FFD311DB3DAD}"/>
-    <hyperlink ref="F15" r:id="rId28" xr:uid="{A73CC50D-6402-4B9F-BA89-B7BEF6A9A237}"/>
-    <hyperlink ref="F4" r:id="rId29" xr:uid="{1A1C1243-6CD0-4D71-BF93-FB319C2C1DCC}"/>
-    <hyperlink ref="F6" r:id="rId30" xr:uid="{5387E2DD-7E16-4507-B60B-B69362367297}"/>
-    <hyperlink ref="F24" r:id="rId31" xr:uid="{E60A799E-C70E-4656-8426-1D272A3F13D2}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{8B9632A9-814A-4DC4-9631-57B7806D3330}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{D392D526-59B2-4A93-A093-DCD2091DFEBD}"/>
+    <hyperlink ref="F27" r:id="rId20" xr:uid="{008E511C-47F5-4260-BD59-24F612C3A54C}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{B7BABB34-FFAC-4368-AC9C-3711E18528C8}"/>
+    <hyperlink ref="F33" r:id="rId22" xr:uid="{D0673C57-FA09-40F3-A004-4F5B32DB700F}"/>
+    <hyperlink ref="F7" r:id="rId23" xr:uid="{0A8324C1-BE5A-439C-A2BE-1A9CE9E466C8}"/>
+    <hyperlink ref="F22" r:id="rId24" xr:uid="{7E74E579-8BBC-460D-8171-1DD7E7105ABE}"/>
+    <hyperlink ref="F5" r:id="rId25" xr:uid="{E60E51FB-EE57-496C-BB85-FFD311DB3DAD}"/>
+    <hyperlink ref="F15" r:id="rId26" xr:uid="{A73CC50D-6402-4B9F-BA89-B7BEF6A9A237}"/>
+    <hyperlink ref="F4" r:id="rId27" xr:uid="{1A1C1243-6CD0-4D71-BF93-FB319C2C1DCC}"/>
+    <hyperlink ref="F6" r:id="rId28" xr:uid="{5387E2DD-7E16-4507-B60B-B69362367297}"/>
+    <hyperlink ref="F24" r:id="rId29" xr:uid="{E60A799E-C70E-4656-8426-1D272A3F13D2}"/>
+    <hyperlink ref="F32" r:id="rId30" xr:uid="{4F25721E-C4C9-49DB-97FF-D9D5C33601A0}"/>
+    <hyperlink ref="F20" r:id="rId31" xr:uid="{360AA49B-942A-4136-9898-3D7645969441}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/iVCA/iVCA_BOM.xlsx
+++ b/Modules/iVCA/iVCA_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\iVCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCFBBE8-B658-49A1-8A15-467AA37487A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FDEE0A-A668-4BD8-94B7-A9BDEFE45D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,12 +80,6 @@
     <t>DO-41</t>
   </si>
   <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
     <t>Resistor THT</t>
   </si>
   <si>
@@ -98,19 +92,10 @@
     <t>Audio Jack</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>DIP-14 Socket</t>
   </si>
   <si>
     <t>IC Socket</t>
-  </si>
-  <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
   </si>
   <si>
     <t>Parts in itallic are on the front PCB!</t>
@@ -523,6 +508,21 @@
   </si>
   <si>
     <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1460,16 +1460,16 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1480,16 +1480,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1497,19 +1497,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1520,16 +1520,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1537,19 +1537,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1557,19 +1557,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1577,19 +1577,19 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1600,16 +1600,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1620,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1640,19 +1640,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1663,16 +1663,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1683,16 +1683,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1706,13 +1706,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1720,19 +1720,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1740,19 +1740,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,19 +1760,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,19 +1780,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,19 +1800,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,19 +1820,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,19 +1840,19 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,19 +1860,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,19 +1880,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,19 +1900,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,16 +1920,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,16 +1937,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,16 +1954,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,16 +1974,16 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>40</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,16 +1991,16 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,16 +2008,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,16 +2025,16 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2042,7 +2042,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2058,22 +2058,22 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Modules/iVCA/iVCA_BOM.xlsx
+++ b/Modules/iVCA/iVCA_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\iVCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FDEE0A-A668-4BD8-94B7-A9BDEFE45D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9809B1-F40D-4B4E-9970-B818BF85C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iVCA" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
   <si>
     <t>Qty</t>
   </si>
@@ -98,9 +98,6 @@
     <t>IC Socket</t>
   </si>
   <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -110,15 +107,6 @@
     <t>https://www.aliexpress.com/item/1005003256812123.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
     <t>PJ398SM</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
     <t>TL074</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
     <t>1x6</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t>Trimmer THT</t>
   </si>
   <si>
-    <t>R15, R16, R23</t>
-  </si>
-  <si>
     <t>R5, R6, R7, R8</t>
   </si>
   <si>
@@ -179,18 +161,12 @@
     <t>R-Array-SIP8</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/dr100k-4_8/resistor-networks/royal-ohm/rnlb08g0104b0e/</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005003256254825.html</t>
   </si>
   <si>
     <t>B20k</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/rkt6v-20k/single-turn-tht-trimmers/sr-passives/</t>
-  </si>
-  <si>
     <t>U1, U2</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>LED Red/Green</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
-  </si>
-  <si>
     <t>LD_CV</t>
   </si>
   <si>
@@ -236,9 +209,6 @@
     <t>A100k</t>
   </si>
   <si>
-    <t>P_CV, P_OFFS</t>
-  </si>
-  <si>
     <t>P_VOL</t>
   </si>
   <si>
@@ -257,9 +227,6 @@
     </r>
   </si>
   <si>
-    <t>J_CV, J_IN_L, J_IN_R, J_OUT_L, J_OUT_R</t>
-  </si>
-  <si>
     <t>Male Header 2.54mm</t>
   </si>
   <si>
@@ -368,15 +335,246 @@
     <t>3. Listen to the L and R OUT signals and adjust T_OFFS so that it is silent, but right on the edge of being silent.</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
-  </si>
-  <si>
-    <t>J_B1, J_B2</t>
-  </si>
-  <si>
     <t>R1, R2</t>
   </si>
   <si>
+    <t>RN1, RN2, RN3</t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1% Tolerance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1% Tolerance</t>
+    </r>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
+    <t>BCM847BS</t>
+  </si>
+  <si>
+    <t>SOT-363</t>
+  </si>
+  <si>
+    <t>NPN Dual Package</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resistor Network THT, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Isolated Resistors</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/alpha-d-shaft-dual-gang/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics iVCA</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p041/73P0029/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p050/73P0038/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p053/73P0041/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p054/73P0042/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/mf0207fte-10k/tht-resistors/yageo/mf0207fte52-10k/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/mp0.6w-20k/tht-resistors/royal-ohm/mf006bb2002a10/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/dr100k-4_8/resistor-networks/royal-ohm/rnlb08g0104b0e/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/rkt6v-20k/single-turn-tht-trimmers/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/bcm847bs.115/npn-smd-transistors/nexperia/bcm847bs-115/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-6sg/pin-headers/connfly/ds1023-1-6s21/</t>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R9, R10, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R27</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -389,147 +587,211 @@
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R20, R22</t>
-    </r>
-  </si>
-  <si>
-    <t>RN1, RN2, RN3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R9, R10, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, R27</t>
-    </r>
-  </si>
-  <si>
-    <t>R11, R12, R13, R14</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10k </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1% Tolerance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20k </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.1% Tolerance</t>
-    </r>
-  </si>
-  <si>
-    <t>Q1, Q2</t>
-  </si>
-  <si>
-    <t>BCM847BS</t>
-  </si>
-  <si>
-    <t>SOT-363</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/bcm847bs.115/npn-smd-transistors/nexperia/bcm847bs-115/</t>
-  </si>
-  <si>
-    <t>NPN Dual Package</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/mf0207fte-10k/tht-resistors/yageo/mf0207fte52-10k/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/mp0.6w-20k/tht-resistors/royal-ohm/mf006bb2002a10/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Resistor Network THT, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4 Isolated Resistors</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/alpha-d-shaft-dual-gang/</t>
-  </si>
-  <si>
-    <t>Thonkiconn</t>
-  </si>
-  <si>
-    <t>R-1/4W</t>
-  </si>
-  <si>
-    <t>C-P5mm</t>
-  </si>
-  <si>
-    <t>E-P2.5mm 6.3x11.5mm</t>
-  </si>
-  <si>
-    <t>Electrolytic Capacitor THT</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor THT</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_CV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_OFFS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_CV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT_L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT_R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J_B2</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c8202fct00/14E695/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,16 +963,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1058,17 +1328,18 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1415,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,684 +1702,787 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
+      <c r="D3" t="s">
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>87</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{E7FE330F-8A3B-4669-8B30-2C9E9A5FC581}"/>
-    <hyperlink ref="F17" r:id="rId12" xr:uid="{D29AE626-DF4E-4773-AA8D-0524E4224C52}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{DAB40736-F04B-49BE-B956-976DD3855565}"/>
-    <hyperlink ref="P10" r:id="rId14" xr:uid="{5B664CC3-E913-48D8-8E4C-C36CC978BC62}"/>
-    <hyperlink ref="F11" r:id="rId15" xr:uid="{9A2C0F42-F9A7-41AA-94D5-CCEE60DCDB6C}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{0D90FBA3-232B-45F3-9B80-144E63D03E3D}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{8DF1F044-558D-44D8-8070-099BFF365FAB}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{8B9632A9-814A-4DC4-9631-57B7806D3330}"/>
-    <hyperlink ref="F26" r:id="rId19" xr:uid="{D392D526-59B2-4A93-A093-DCD2091DFEBD}"/>
-    <hyperlink ref="F27" r:id="rId20" xr:uid="{008E511C-47F5-4260-BD59-24F612C3A54C}"/>
-    <hyperlink ref="F28" r:id="rId21" xr:uid="{B7BABB34-FFAC-4368-AC9C-3711E18528C8}"/>
-    <hyperlink ref="F33" r:id="rId22" xr:uid="{D0673C57-FA09-40F3-A004-4F5B32DB700F}"/>
-    <hyperlink ref="F7" r:id="rId23" xr:uid="{0A8324C1-BE5A-439C-A2BE-1A9CE9E466C8}"/>
-    <hyperlink ref="F22" r:id="rId24" xr:uid="{7E74E579-8BBC-460D-8171-1DD7E7105ABE}"/>
-    <hyperlink ref="F5" r:id="rId25" xr:uid="{E60E51FB-EE57-496C-BB85-FFD311DB3DAD}"/>
-    <hyperlink ref="F15" r:id="rId26" xr:uid="{A73CC50D-6402-4B9F-BA89-B7BEF6A9A237}"/>
-    <hyperlink ref="F4" r:id="rId27" xr:uid="{1A1C1243-6CD0-4D71-BF93-FB319C2C1DCC}"/>
-    <hyperlink ref="F6" r:id="rId28" xr:uid="{5387E2DD-7E16-4507-B60B-B69362367297}"/>
-    <hyperlink ref="F24" r:id="rId29" xr:uid="{E60A799E-C70E-4656-8426-1D272A3F13D2}"/>
-    <hyperlink ref="F32" r:id="rId30" xr:uid="{4F25721E-C4C9-49DB-97FF-D9D5C33601A0}"/>
-    <hyperlink ref="F20" r:id="rId31" xr:uid="{360AA49B-942A-4136-9898-3D7645969441}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{E7FE330F-8A3B-4669-8B30-2C9E9A5FC581}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{D29AE626-DF4E-4773-AA8D-0524E4224C52}"/>
+    <hyperlink ref="J11" r:id="rId13" xr:uid="{DAB40736-F04B-49BE-B956-976DD3855565}"/>
+    <hyperlink ref="F11" r:id="rId14" xr:uid="{5B664CC3-E913-48D8-8E4C-C36CC978BC62}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{9A2C0F42-F9A7-41AA-94D5-CCEE60DCDB6C}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{0D90FBA3-232B-45F3-9B80-144E63D03E3D}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{8DF1F044-558D-44D8-8070-099BFF365FAB}"/>
+    <hyperlink ref="J24" r:id="rId18" xr:uid="{8B9632A9-814A-4DC4-9631-57B7806D3330}"/>
+    <hyperlink ref="F27" r:id="rId19" xr:uid="{D392D526-59B2-4A93-A093-DCD2091DFEBD}"/>
+    <hyperlink ref="F28" r:id="rId20" xr:uid="{008E511C-47F5-4260-BD59-24F612C3A54C}"/>
+    <hyperlink ref="F29" r:id="rId21" xr:uid="{B7BABB34-FFAC-4368-AC9C-3711E18528C8}"/>
+    <hyperlink ref="F34" r:id="rId22" xr:uid="{D0673C57-FA09-40F3-A004-4F5B32DB700F}"/>
+    <hyperlink ref="J8" r:id="rId23" xr:uid="{0A8324C1-BE5A-439C-A2BE-1A9CE9E466C8}"/>
+    <hyperlink ref="F23" r:id="rId24" xr:uid="{7E74E579-8BBC-460D-8171-1DD7E7105ABE}"/>
+    <hyperlink ref="J6" r:id="rId25" xr:uid="{E60E51FB-EE57-496C-BB85-FFD311DB3DAD}"/>
+    <hyperlink ref="F16" r:id="rId26" xr:uid="{A73CC50D-6402-4B9F-BA89-B7BEF6A9A237}"/>
+    <hyperlink ref="F5" r:id="rId27" xr:uid="{1A1C1243-6CD0-4D71-BF93-FB319C2C1DCC}"/>
+    <hyperlink ref="F7" r:id="rId28" xr:uid="{5387E2DD-7E16-4507-B60B-B69362367297}"/>
+    <hyperlink ref="F25" r:id="rId29" xr:uid="{E60A799E-C70E-4656-8426-1D272A3F13D2}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{4F25721E-C4C9-49DB-97FF-D9D5C33601A0}"/>
+    <hyperlink ref="F21" r:id="rId31" xr:uid="{360AA49B-942A-4136-9898-3D7645969441}"/>
+    <hyperlink ref="F3" r:id="rId32" xr:uid="{B6FB057F-DC4C-4EFA-939D-705FFE5CCBEB}"/>
+    <hyperlink ref="F4" r:id="rId33" xr:uid="{5B69DA51-349B-4BAC-B42E-72EDB3822F52}"/>
+    <hyperlink ref="F6" r:id="rId34" xr:uid="{079911ED-A73D-4227-BB82-AF6A4545BD22}"/>
+    <hyperlink ref="F8" r:id="rId35" xr:uid="{F138ACE3-1C0B-4DA4-83B4-68E04D42124F}"/>
+    <hyperlink ref="F10" r:id="rId36" xr:uid="{9ED1FABF-4E47-46F6-A286-3E2431D22EF2}"/>
+    <hyperlink ref="F17" r:id="rId37" xr:uid="{1939E0C4-76A7-49EB-AB43-10430132F3D5}"/>
+    <hyperlink ref="F24" r:id="rId38" xr:uid="{F7765BE8-182D-4ED2-872D-B59FFBEDDC87}"/>
+    <hyperlink ref="J9" r:id="rId39" xr:uid="{B9E0B8B4-C7AA-4C36-B6A7-FDC9645CF2E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/iVCA/iVCA_BOM.xlsx
+++ b/Modules/iVCA/iVCA_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\iVCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9809B1-F40D-4B4E-9970-B818BF85C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C06C4-3A69-47D3-9ACC-ACB060397DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iVCA" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,9 +173,6 @@
     <t>L-937EGW</t>
   </si>
   <si>
-    <t>LED 3mm Flat Bicolor</t>
-  </si>
-  <si>
     <t>LED Red/Green</t>
   </si>
   <si>
@@ -785,6 +782,9 @@
   </si>
   <si>
     <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c8202fct00/14E695/</t>
+  </si>
+  <si>
+    <t>LED 3mm Dome Bicolor</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1689,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1739,16 +1739,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>22</v>
@@ -1762,16 +1762,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>22</v>
@@ -1782,22 +1782,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,16 +1808,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>22</v>
@@ -1828,10 +1828,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -1840,10 +1840,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1851,19 +1851,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>22</v>
@@ -1877,10 +1877,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1889,7 +1889,7 @@
         <v>22</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,16 +1900,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>22</v>
@@ -1926,16 +1926,16 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1949,16 +1949,16 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,19 +1969,19 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1992,19 +1992,19 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2024,10 +2024,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2035,22 +2035,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>23</v>
@@ -2093,10 +2093,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2107,19 +2107,19 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2150,22 +2150,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,13 +2173,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -2188,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2199,19 +2199,19 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2222,19 +2222,19 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -2254,10 +2254,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2265,19 +2265,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2285,19 +2285,19 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2305,19 +2305,19 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2371,16 +2371,16 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2388,19 +2388,19 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>75</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2424,22 +2424,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
